--- a/isitword test/word/th_wordlist.xlsx
+++ b/isitword test/word/th_wordlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510431E-A007-4B75-9696-7539862733EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD210FA-9BCA-4EB1-B9EE-AA5A14748610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5604" yWindow="1416" windowWidth="16104" windowHeight="10632" xr2:uid="{90554ABF-56D5-4824-8EA5-518161E00370}"/>
+    <workbookView xWindow="708" yWindow="696" windowWidth="7056" windowHeight="10632" xr2:uid="{90554ABF-56D5-4824-8EA5-518161E00370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,15 +78,9 @@
     <t>แจกัน</t>
   </si>
   <si>
-    <t>ดิน</t>
-  </si>
-  <si>
     <t>ของขวัญ</t>
   </si>
   <si>
-    <t>กีวี</t>
-  </si>
-  <si>
     <t>เข็มขัด</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>อิฐ</t>
   </si>
   <si>
-    <t>อำพัน</t>
-  </si>
-  <si>
     <t>โดนัท</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>โซฟา</t>
   </si>
   <si>
-    <t>ลูกศร</t>
-  </si>
-  <si>
     <t>รูปปั้น</t>
   </si>
   <si>
@@ -147,15 +135,6 @@
     <t>น้ำหอม</t>
   </si>
   <si>
-    <t>ถั่วงอก</t>
-  </si>
-  <si>
-    <t>นกแร้ง</t>
-  </si>
-  <si>
-    <t>ลำโพง</t>
-  </si>
-  <si>
     <t>แรคคูน</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>ขัวองญข</t>
   </si>
   <si>
-    <t>วกีี</t>
-  </si>
-  <si>
     <t>ขเดมัข็</t>
   </si>
   <si>
@@ -204,9 +180,6 @@
     <t>โฟซา</t>
   </si>
   <si>
-    <t>รลศกู</t>
-  </si>
-  <si>
     <t>นอมห</t>
   </si>
   <si>
@@ -228,15 +201,6 @@
     <t>น้มอหำ</t>
   </si>
   <si>
-    <t>ว่ถกอัง</t>
-  </si>
-  <si>
-    <t>งก้แรน</t>
-  </si>
-  <si>
-    <t>โงำลพ</t>
-  </si>
-  <si>
     <t>รูคนคแ</t>
   </si>
   <si>
@@ -258,18 +222,12 @@
     <t>กนแจั</t>
   </si>
   <si>
-    <t>นดิ</t>
-  </si>
-  <si>
     <t>นวาส่</t>
   </si>
   <si>
     <t>ฐอิ</t>
   </si>
   <si>
-    <t>พำนัอ</t>
-  </si>
-  <si>
     <t>ป้ปันรู</t>
   </si>
   <si>
@@ -315,15 +273,9 @@
     <t>แสนืร</t>
   </si>
   <si>
-    <t>ดีย</t>
-  </si>
-  <si>
     <t>ขนาผฟีล</t>
   </si>
   <si>
-    <t>กีลึ</t>
-  </si>
-  <si>
     <t>เน้บลีต</t>
   </si>
   <si>
@@ -333,9 +285,6 @@
     <t>อิฎ</t>
   </si>
   <si>
-    <t>อำกัพ</t>
-  </si>
-  <si>
     <t>โตคีก</t>
   </si>
   <si>
@@ -348,9 +297,6 @@
     <t>โผฝบ</t>
   </si>
   <si>
-    <t>ลูงภพ</t>
-  </si>
-  <si>
     <t>รูฟฝื้อ</t>
   </si>
   <si>
@@ -387,19 +333,73 @@
     <t>นี้นยาค</t>
   </si>
   <si>
-    <t>ถี้บเยข</t>
-  </si>
-  <si>
-    <t>นาจรึก</t>
-  </si>
-  <si>
-    <t>ลันใยบ</t>
-  </si>
-  <si>
     <t>แคกขุย</t>
   </si>
   <si>
     <t>กบคีนรอ</t>
+  </si>
+  <si>
+    <t>หวี</t>
+  </si>
+  <si>
+    <t>วหี</t>
+  </si>
+  <si>
+    <t>หวึ</t>
+  </si>
+  <si>
+    <t>เรือ</t>
+  </si>
+  <si>
+    <t>อืเร</t>
+  </si>
+  <si>
+    <t>เติน</t>
+  </si>
+  <si>
+    <t>ลูกอม</t>
+  </si>
+  <si>
+    <t>กมลอู</t>
+  </si>
+  <si>
+    <t>ลุนทา</t>
+  </si>
+  <si>
+    <t>องุ่น</t>
+  </si>
+  <si>
+    <t>นุง่อ</t>
+  </si>
+  <si>
+    <t>อตู๊บ</t>
+  </si>
+  <si>
+    <t>จักรยาน</t>
+  </si>
+  <si>
+    <t>นรักายจ</t>
+  </si>
+  <si>
+    <t>จัณกทอร</t>
+  </si>
+  <si>
+    <t>โลมา</t>
+  </si>
+  <si>
+    <t>มโลา</t>
+  </si>
+  <si>
+    <t>โบลม</t>
+  </si>
+  <si>
+    <t>ยีราฟ</t>
+  </si>
+  <si>
+    <t>ฟีราย</t>
+  </si>
+  <si>
+    <t>ยีหาฝ</t>
   </si>
   <si>
     <t>Scramble</t>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E0FFA9-C43D-4422-B545-60D8A2D8A468}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -824,10 +824,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -838,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -866,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -880,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -894,10 +894,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -908,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -922,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -950,10 +950,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -964,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -978,10 +978,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -989,13 +989,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1003,13 +1003,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1017,13 +1017,13 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1031,13 +1031,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1045,13 +1045,13 @@
         <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1059,13 +1059,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1073,13 +1073,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1087,13 +1087,13 @@
         <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1101,13 +1101,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1115,13 +1115,13 @@
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1129,13 +1129,13 @@
         <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1143,13 +1143,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>88</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1325,10 +1325,10 @@
         <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>118</v>
@@ -1339,13 +1339,13 @@
         <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/isitword test/word/th_wordlist.xlsx
+++ b/isitword test/word/th_wordlist.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD210FA-9BCA-4EB1-B9EE-AA5A14748610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738C60F-5CA1-41CD-832D-DB6F9C15833D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="696" windowWidth="7056" windowHeight="10632" xr2:uid="{90554ABF-56D5-4824-8EA5-518161E00370}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{90554ABF-56D5-4824-8EA5-518161E00370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Image ID</t>
   </si>
@@ -406,6 +410,12 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>actual len</t>
   </si>
 </sst>
 </file>
@@ -445,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -468,15 +478,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -794,15 +818,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E0FFA9-C43D-4422-B545-60D8A2D8A468}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,554 +839,833 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <f>LEN(B2)</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <f>LEN(B3)</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <f>LEN(B4)</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <f>LEN(B5)</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <f>LEN(B6)</f>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <f>LEN(B7)</f>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <f>LEN(B8)</f>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <f>LEN(B9)</f>
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <f>LEN(B10)</f>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f>LEN(B11)</f>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <f>LEN(B12)</f>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="E13">
+        <f>LEN(B13)</f>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <f>LEN(B14)</f>
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15">
+        <f>LEN(B15)</f>
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <f>LEN(B16)</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17">
+        <f>LEN(B17)</f>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <f>LEN(B18)</f>
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <f>LEN(B19)</f>
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <f>LEN(B20)</f>
+        <v>5</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <f>LEN(B21)</f>
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <f>LEN(B22)</f>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23">
+        <f>LEN(B23)</f>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <f>LEN(B24)</f>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25">
+        <f>LEN(B25)</f>
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26">
+        <f>LEN(B26)</f>
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <f>LEN(B27)</f>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <f>LEN(B28)</f>
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29">
+        <f>LEN(B29)</f>
+        <v>6</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30">
+        <f>LEN(B30)</f>
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31">
+        <f>LEN(B31)</f>
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <f>LEN(B32)</f>
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33">
+        <f>LEN(B33)</f>
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <f>LEN(B34)</f>
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35">
+        <f>LEN(B35)</f>
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <f>LEN(B36)</f>
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <f>LEN(B37)</f>
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <f>LEN(B38)</f>
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="E39">
+        <f>LEN(B39)</f>
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
         <v>89</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>70</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>71</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>82</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>87</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>88</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>89</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>93</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>94</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>95</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <f>LEN(B40)</f>
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>96</v>
       </c>
@@ -1375,10 +1678,17 @@
       <c r="D41" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E41">
+        <f>LEN(B41)</f>
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="A1:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="E1:E41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
